--- a/2-1试验数据/0高强钢单调拉伸2016.11/赵琛处理/应力应变关系曲线.xlsx
+++ b/2-1试验数据/0高强钢单调拉伸2016.11/赵琛处理/应力应变关系曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\2-1试验数据\0高强钢单调拉伸2016.11\赵琛处理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CCB236-D511-4E70-9703-7B17937B2A50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBE9312-C2C1-4E35-B406-C93578207F5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B609C78-2923-47F0-B7E9-8DA58E54F2A4}"/>
   </bookViews>
@@ -42755,8 +42755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8F63A-825E-4B77-B5CE-500F6D92FE83}">
   <dimension ref="A1:AE557"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
